--- a/数据整理/stocks/A股/创业板/300573-兴齐眼药.xlsx
+++ b/数据整理/stocks/A股/创业板/300573-兴齐眼药.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.79</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>7.01</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -530,15 +550,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.79</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>7.01</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +602,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +632,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004558</t>
+          <t>008138</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇安丰裕灵活配置混合A</t>
+          <t>富国龙头优势混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.40</t>
+          <t>7.73</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.40</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2443</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -622,25 +670,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004559</t>
+          <t>004558</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇安丰裕灵活配置混合C</t>
+          <t>汇安丰裕灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>87.40</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>8.40</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -650,26 +708,30 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008138</t>
+          <t>004559</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国龙头优势混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300573-兴齐眼药.xlsx
+++ b/数据整理/stocks/A股/创业板/300573-兴齐眼药.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -716,7 +717,6 @@
           <t>汇安丰裕灵活配置混合C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>87.40</t>
@@ -732,6 +732,744 @@
       </c>
       <c r="H4" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2080</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0819</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5911</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3844</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3198</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3168</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004558</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005599</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005600</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004559</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300573-兴齐眼药.xlsx
+++ b/数据整理/stocks/A股/创业板/300573-兴齐眼药.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1475,4 +1476,1086 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9994</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9779</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5857</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5400</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3309</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2874</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2738</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006218</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2641</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2566</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1697</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>47.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>40.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1533</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>47.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004558</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>40.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>72.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011308</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004559</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300573-兴齐眼药.xlsx
+++ b/数据整理/stocks/A股/创业板/300573-兴齐眼药.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2558,4 +2559,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300573-兴齐眼药.xlsx
+++ b/数据整理/stocks/A股/创业板/300573-兴齐眼药.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2567,7 +2568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2578,17 +2579,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2598,14 +2619,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.59</v>
+          <t>009990</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0635</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2614,14 +2657,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.18</v>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7757</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2630,14 +2695,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.33</v>
+          <t>011357</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0495</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2646,13 +2733,1251 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5823</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5463</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010122</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4301</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3953</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001510</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3508</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3015</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3012</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001815</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2770</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2645</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009991</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001508</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004558</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006942</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011358</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>42.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010123</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004559</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006943</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300573-兴齐眼药.xlsx
+++ b/数据整理/stocks/A股/创业板/300573-兴齐眼药.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3876,7 +3877,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3887,17 +3888,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3907,14 +3928,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.18</v>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4127</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3923,14 +3966,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>27</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.59</v>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8099</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3939,14 +4004,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.18</v>
+          <t>011357</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6599</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3955,14 +4042,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.33</v>
+          <t>006218</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4737</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3971,13 +4080,737 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009990</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3621</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3365</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3348</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011921</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2391</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2091</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2028</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1894</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009991</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011308</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004558</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011358</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011922</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>55.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004559</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300573-兴齐眼药.xlsx
+++ b/数据整理/stocks/A股/创业板/300573-兴齐眼药.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4693,7 +4694,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4704,17 +4705,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4724,14 +4745,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.59</v>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4003</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -4740,14 +4783,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.18</v>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0846</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4756,14 +4821,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.59</v>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3771</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -4772,14 +4859,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.18</v>
+          <t>011357</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9204</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -4788,14 +4897,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7045</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.33</v>
       </c>
     </row>
     <row r="7">
@@ -4804,13 +4935,2121 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5681</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006218</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5430</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011921</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4065</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3854</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3453</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009990</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3263</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001857</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3163</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2816</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2374</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2121</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>72.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1851</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011308</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001384</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013483</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009991</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>48.83</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001385</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方新思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011358</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>57.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>57.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.63</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011922</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>74.19</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>74.19</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>56.75</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>970073</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014931</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>72.33</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>57.57</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>970074</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014930</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>57</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300573-兴齐眼药.xlsx
+++ b/数据整理/stocks/A股/创业板/300573-兴齐眼药.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>12.68</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D3" t="n">
-        <v>5.59</v>
+        <v>12.68</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>9.18</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>6.59</v>
+        <v>9.18</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
-        <v>5.18</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>0.33</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -600,6 +617,744 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4053</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0351</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011357</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6056</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4122</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006218</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3032</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2624</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009990</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2492</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011921</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2247</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010122</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1489</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>70.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009991</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>68.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011308</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011358</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011922</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010123</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014930</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014931</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>70.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2821,7 +3576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3637,7 +4392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4945,7 +5700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6027,7 +6782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6765,7 +7520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6928,7 +7683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300573-兴齐眼药.xlsx
+++ b/数据整理/stocks/A股/创业板/300573-兴齐眼药.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>4.95</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>12.68</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D4" t="n">
-        <v>5.59</v>
+        <v>12.68</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>9.18</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>6.59</v>
+        <v>9.18</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>5.18</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>0.33</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -616,7 +633,1331 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004558</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004559</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7813</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4258</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5660</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4050</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006218</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3744</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3612</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011921</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3097</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011308</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014151</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国富鑫享价值一年封闭混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>63.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014996</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011922</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014701</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧量化动能混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014702</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧量化动能混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014995</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015006</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧量化动力混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014152</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国富鑫享价值一年封闭混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>63.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015007</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧量化动力混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014930</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014003</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014931</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1354,7 +2695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3576,7 +4917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4392,7 +5733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5700,7 +7041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6782,7 +8123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7520,7 +8861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7681,134 +9022,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004558</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇安丰裕灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.79</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0904</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004559</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇安丰裕灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.79</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>